--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -1,57 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>stt</t>
-  </si>
-  <si>
-    <t>f_name</t>
-  </si>
-  <si>
-    <t>l_name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,30 +385,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="3.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s01</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>chu</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>phuc</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>456846513</t>
+        </is>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mất gốc</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,15 +25,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,12 +47,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,41 +417,218 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="3.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="10" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="11" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Class </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>s01</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>chu</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>phuc</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>456846513</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phuc</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>966893009</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Toeic</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>s02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mất gốc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>s03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Luyện đề</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>s05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asdq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mất gốc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>s06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mất gốc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>s07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Mất gốc</t>
         </is>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -417,10 +417,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chu</t>
+          <t>Chu Quang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +480,19 @@
           <t>Phuc</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E2" t="n">
-        <v>966893009</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0966893009</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Toeic</t>
+          <t>Mất gốc</t>
         </is>
       </c>
     </row>
@@ -500,17 +504,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sdf</t>
+          <t>Le Dieu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sdf</t>
+          <t>Huong</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,116 +523,6 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Mất gốc</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>s03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Luyện đề</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>s05</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asdq</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mất gốc</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>s06</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mất gốc</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>s07</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
         <is>
           <t>Mất gốc</t>
         </is>
